--- a/ExcelTables/item.xlsx
+++ b/ExcelTables/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\Visual Studio\AOGame\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDC90E-77A2-4E70-AB0E-B6E72E338F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF30CE4-95E7-409D-B983-76AB59F2D000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K14" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -933,6 +933,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>